--- a/simInfo.xlsx
+++ b/simInfo.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="85">
   <si>
     <t xml:space="preserve">city</t>
   </si>
@@ -67,18 +67,27 @@
     <t xml:space="preserve">董钊</t>
   </si>
   <si>
+    <t xml:space="preserve">内蒙古,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">河北</t>
   </si>
   <si>
     <t xml:space="preserve">龙卉</t>
   </si>
   <si>
+    <t xml:space="preserve">北京,58</t>
+  </si>
+  <si>
     <t xml:space="preserve">河南</t>
   </si>
   <si>
     <t xml:space="preserve">王林博</t>
   </si>
   <si>
+    <t xml:space="preserve">四川,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">湖北</t>
   </si>
   <si>
@@ -88,6 +97,9 @@
     <t xml:space="preserve">张淑云</t>
   </si>
   <si>
+    <t xml:space="preserve">山东,2</t>
+  </si>
+  <si>
     <t xml:space="preserve">湖南</t>
   </si>
   <si>
@@ -100,12 +112,18 @@
     <t xml:space="preserve">张煜</t>
   </si>
   <si>
+    <t xml:space="preserve">广东（深圳),2</t>
+  </si>
+  <si>
     <t xml:space="preserve">吉林</t>
   </si>
   <si>
     <t xml:space="preserve">金海燕</t>
   </si>
   <si>
+    <t xml:space="preserve">江苏,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">江苏</t>
   </si>
   <si>
@@ -115,18 +133,27 @@
     <t xml:space="preserve">宋逸俊</t>
   </si>
   <si>
+    <t xml:space="preserve">河南,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">辽宁</t>
   </si>
   <si>
     <t xml:space="preserve">张伦</t>
   </si>
   <si>
+    <t xml:space="preserve">浙江,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">内蒙古</t>
   </si>
   <si>
     <t xml:space="preserve">薛胜英</t>
   </si>
   <si>
+    <t xml:space="preserve">湖南,3</t>
+  </si>
+  <si>
     <t xml:space="preserve">山东</t>
   </si>
   <si>
@@ -142,10 +169,16 @@
     <t xml:space="preserve">夏玉康</t>
   </si>
   <si>
+    <t xml:space="preserve">辽宁,1</t>
+  </si>
+  <si>
     <t xml:space="preserve">陕西</t>
   </si>
   <si>
     <t xml:space="preserve">白兆鹏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">陕西,31</t>
   </si>
   <si>
     <t xml:space="preserve">上海</t>
@@ -297,12 +330,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC33"/>
+        <bgColor rgb="FF339966"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -339,7 +378,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -352,6 +391,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +404,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,6 +428,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00CC33"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -389,10 +496,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J65536"/>
+  <dimension ref="A1:K65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
@@ -444,8 +551,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -475,16 +582,19 @@
       <c r="J2" s="1" t="n">
         <v>601768</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>15128668801</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>118681</v>
@@ -493,30 +603,33 @@
         <v>13103263770</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="n">
+        <v>17</v>
+      </c>
+      <c r="G3" s="4" t="n">
         <v>77362</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>13323065781</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" s="1" t="n">
         <v>187560</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>17</v>
+      <c r="K3" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>15939599335</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>199935</v>
@@ -525,7 +638,7 @@
         <v>13193448531</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>135844</v>
@@ -534,21 +647,24 @@
         <v>17719931474</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>474139</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="4" t="n">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="n">
         <v>15072498067</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>102907</v>
@@ -557,7 +673,7 @@
         <v>15586845785</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>587548</v>
@@ -566,28 +682,31 @@
         <v>17371178631</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J5" s="1" t="n">
         <v>131761</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="K5" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="0"/>
       <c r="D6" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>13217483953</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>359384</v>
@@ -595,16 +714,19 @@
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
       <c r="J6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K6" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>15943910614</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>193164</v>
@@ -613,30 +735,33 @@
         <v>13294396470</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="G7" s="4" t="n">
         <v>74693</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>13321593314</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="J7" s="1" t="n">
         <v>413395</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
+      <c r="K7" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>15094393043</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>104903</v>
@@ -645,7 +770,7 @@
         <v>18605103601</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G8" s="1" t="n">
         <v>106301</v>
@@ -654,21 +779,24 @@
         <v>17368357716</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="n">
         <v>617753</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>31</v>
+      <c r="K8" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>18242941749</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1" t="n">
         <v>926455</v>
@@ -677,7 +805,7 @@
         <v>15541860723</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="n">
         <v>327068</v>
@@ -686,21 +814,24 @@
         <v>13358845391</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="J9" s="1" t="n">
         <v>193548</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>33</v>
+      <c r="K9" s="0" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>15849852933</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="n">
         <v>189593</v>
@@ -709,7 +840,7 @@
         <v>15547821633</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="G10" s="1" t="n">
         <v>336128</v>
@@ -718,30 +849,33 @@
         <v>15335686893</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="J10" s="1" t="n">
         <v>398686</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>35</v>
+      <c r="K10" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>18660698301</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G11" s="1" t="n">
         <v>103896</v>
@@ -750,21 +884,24 @@
         <v>18054624035</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="n">
         <v>530426</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
+      <c r="K11" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="18.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>18709257665</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D12" s="1" t="n">
         <v>179576</v>
@@ -773,7 +910,7 @@
         <v>18629259008</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G12" s="1" t="n">
         <v>800952</v>
@@ -782,30 +919,33 @@
         <v>18092805191</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J12" s="1" t="n">
         <v>191508</v>
       </c>
+      <c r="K12" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="n">
         <v>13167167401</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>44</v>
+      <c r="F13" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G13" s="1" t="n">
         <v>104761</v>
@@ -813,22 +953,22 @@
       <c r="H13" s="1" t="n">
         <v>13301811625</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>44</v>
+      <c r="I13" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J13" s="1" t="n">
         <v>131165</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>46</v>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>18215591773</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D14" s="1" t="n">
         <v>125917</v>
@@ -837,7 +977,7 @@
         <v>15680637591</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="G14" s="1" t="n">
         <v>195736</v>
@@ -846,7 +986,7 @@
         <v>18180423849</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="J14" s="1" t="n">
         <v>948324</v>
@@ -854,13 +994,13 @@
     </row>
     <row r="15" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>18202541892</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>122482</v>
@@ -869,7 +1009,7 @@
         <v>15620062189</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="G15" s="1" t="n">
         <v>981260</v>
@@ -878,30 +1018,30 @@
         <v>18920425979</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="n">
         <v>979524</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="17.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" s="5" t="n">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="6" t="n">
         <v>13575702249</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>44</v>
+      <c r="C16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E16" s="1" t="n">
         <v>13173690206</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
+      <c r="F16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="G16" s="1" t="n">
         <v>602069</v>
@@ -909,46 +1049,46 @@
       <c r="H16" s="1" t="n">
         <v>18167100488</v>
       </c>
-      <c r="I16" s="5" t="s">
-        <v>44</v>
+      <c r="I16" s="6" t="s">
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="n">
         <v>400176</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="20.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>52</v>
+      <c r="A17" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>15999917956</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>53</v>
+      <c r="C17" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="E17" s="1" t="n">
         <v>18620292830</v>
       </c>
-      <c r="F17" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G17" s="3" t="n">
+      <c r="F17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="4" t="n">
         <v>38292</v>
       </c>
       <c r="H17" s="1" t="n">
         <v>18198858921</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="J17" s="7"/>
+      <c r="I17" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="J17" s="9"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>56</v>
+      <c r="A18" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -970,7 +1110,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B19" s="0"/>
       <c r="C19" s="0"/>
@@ -984,7 +1124,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
@@ -998,7 +1138,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0"/>
       <c r="C21" s="0"/>
@@ -1012,7 +1152,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -1026,7 +1166,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -1040,7 +1180,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B24" s="0"/>
       <c r="C24" s="0"/>
@@ -1054,7 +1194,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>15903551769</v>
@@ -1072,16 +1212,16 @@
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>15826472370</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E26" s="0"/>
       <c r="F26" s="0"/>
@@ -1092,7 +1232,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="B27" s="0"/>
       <c r="C27" s="0"/>
@@ -1106,7 +1246,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B28" s="0"/>
       <c r="C28" s="0"/>
@@ -1120,7 +1260,7 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="B29" s="0"/>
       <c r="C29" s="0"/>
@@ -1134,7 +1274,7 @@
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B30" s="0"/>
       <c r="C30" s="0"/>
@@ -1148,7 +1288,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="B31" s="0"/>
       <c r="C31" s="0"/>
@@ -1162,7 +1302,7 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B32" s="0"/>
       <c r="C32" s="0"/>
@@ -1176,7 +1316,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
